--- a/examples/sources/data/unsolved/to_schedule/2019-01-04.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-01-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="73">
   <si>
     <t>Id</t>
   </si>
@@ -37,6 +37,27 @@
     <t>Fiscal</t>
   </si>
   <si>
+    <t>Querellante</t>
+  </si>
+  <si>
+    <t>Asesor</t>
+  </si>
+  <si>
+    <t>Riesgosa</t>
+  </si>
+  <si>
+    <t>Detenido</t>
+  </si>
+  <si>
+    <t>A la Tarde</t>
+  </si>
+  <si>
+    <t>Boulogne</t>
+  </si>
+  <si>
+    <t>Alma Fuerte</t>
+  </si>
+  <si>
     <t>Fecha de Pedido</t>
   </si>
   <si>
@@ -85,15 +106,15 @@
     <t xml:space="preserve">  Defensor Particular - DR LUCAS LECOUR</t>
   </si>
   <si>
+    <t>Alasino Carolina (23ra. def.)</t>
+  </si>
+  <si>
     <t xml:space="preserve">  Defensor Particular - PABLO ROTONDI</t>
   </si>
   <si>
     <t xml:space="preserve">  Defensor Particular - FRANCISCO MACHUCA</t>
   </si>
   <si>
-    <t>Alasino Carolina (23ra. def.)</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Defensor Particular - DR. ARAGONES</t>
   </si>
   <si>
@@ -136,12 +157,18 @@
     <t>Velez Claudia (querellante)</t>
   </si>
   <si>
+    <t xml:space="preserve">  Defensor Particular - DR. HINOJOSA</t>
+  </si>
+  <si>
     <t xml:space="preserve">  Defensor Particular - CANALE</t>
   </si>
   <si>
     <t xml:space="preserve">  Defensor Particular - SERGIO CARREÑO</t>
   </si>
   <si>
+    <t>Villanueva Jimena(querellante)</t>
+  </si>
+  <si>
     <t xml:space="preserve">  Defensor Particular - Fernando de la Rosa Jury</t>
   </si>
   <si>
@@ -176,6 +203,9 @@
   </si>
   <si>
     <t>Querellante particular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Defensor Particular - DR. Victor Abalos</t>
   </si>
   <si>
     <t>Olivera Mirtha (11 ra)</t>
@@ -564,13 +594,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:R52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -604,13 +634,34 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>100389</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>820</v>
@@ -622,737 +673,1127 @@
         <v>323</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G2">
         <v>1098</v>
       </c>
-      <c r="H2" s="2">
-        <v>43469</v>
-      </c>
-      <c r="I2">
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>43469</v>
+      </c>
+      <c r="P2">
         <v>451</v>
       </c>
-      <c r="J2" s="2">
+      <c r="Q2" s="2">
         <v>43472</v>
       </c>
-      <c r="K2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="R2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3">
-        <v>100390</v>
+        <v>100389</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C3">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="D3">
         <v>656</v>
       </c>
       <c r="E3">
-        <v>1144</v>
+        <v>323</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G3">
         <v>1098</v>
       </c>
-      <c r="H3" s="2">
-        <v>43469</v>
-      </c>
-      <c r="I3">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <v>43469</v>
+      </c>
+      <c r="P3">
         <v>451</v>
       </c>
-      <c r="J3" s="2">
+      <c r="Q3" s="2">
         <v>43472</v>
       </c>
-      <c r="K3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="R3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4">
+        <v>100390</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>817</v>
+      </c>
+      <c r="D4">
+        <v>656</v>
+      </c>
+      <c r="E4">
+        <v>1144</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4">
+        <v>1098</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>43469</v>
+      </c>
+      <c r="P4">
+        <v>451</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>43472</v>
+      </c>
+      <c r="R4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5">
         <v>100391</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5">
         <v>816</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>348</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>323</v>
       </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4">
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5">
         <v>712</v>
       </c>
-      <c r="H4" s="2">
-        <v>43469</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5">
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>43469</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6">
         <v>100393</v>
       </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5">
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6">
         <v>820</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>816</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>802</v>
       </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5">
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6">
         <v>825</v>
       </c>
-      <c r="H5" s="2">
-        <v>43469</v>
-      </c>
-      <c r="I5">
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>43469</v>
+      </c>
+      <c r="P6">
         <v>498</v>
       </c>
-      <c r="J5" s="2">
+      <c r="Q6" s="2">
         <v>43473</v>
       </c>
-      <c r="K5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6">
+      <c r="R6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7">
         <v>100394</v>
       </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6">
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7">
         <v>821</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>1221</v>
-      </c>
-      <c r="E6">
-        <v>323</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6">
-        <v>1086</v>
-      </c>
-      <c r="H6" s="2">
-        <v>43469</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7">
-        <v>100395</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>818</v>
-      </c>
-      <c r="D7">
-        <v>1220</v>
       </c>
       <c r="E7">
         <v>323</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G7">
-        <v>383</v>
-      </c>
-      <c r="H7" s="2">
-        <v>43469</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>1086</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>43469</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8">
-        <v>100396</v>
+        <v>100394</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C8">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D8">
-        <v>348</v>
+        <v>1221</v>
       </c>
       <c r="E8">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G8">
-        <v>358</v>
-      </c>
-      <c r="H8" s="2">
-        <v>43469</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>1086</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>43469</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9">
-        <v>100397</v>
+        <v>100395</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C9">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="D9">
         <v>1220</v>
       </c>
       <c r="E9">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G9">
-        <v>704</v>
-      </c>
-      <c r="H9" s="2">
-        <v>43469</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>383</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>43469</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10">
-        <v>100398</v>
+        <v>100396</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C10">
         <v>820</v>
       </c>
       <c r="D10">
-        <v>1221</v>
+        <v>348</v>
       </c>
       <c r="E10">
         <v>323</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G10">
+        <v>358</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>43469</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11">
+        <v>100397</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>823</v>
+      </c>
+      <c r="D11">
+        <v>1220</v>
+      </c>
+      <c r="E11">
+        <v>328</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11">
+        <v>704</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>43469</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12">
+        <v>100398</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>820</v>
+      </c>
+      <c r="D12">
+        <v>1221</v>
+      </c>
+      <c r="E12">
+        <v>323</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12">
         <v>530</v>
       </c>
-      <c r="H10" s="2">
-        <v>43469</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11">
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>43469</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13">
         <v>100399</v>
       </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11">
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13">
         <v>820</v>
       </c>
-      <c r="D11">
+      <c r="D13">
         <v>346</v>
       </c>
-      <c r="E11">
+      <c r="E13">
         <v>368</v>
       </c>
-      <c r="F11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11">
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13">
         <v>530</v>
       </c>
-      <c r="H11" s="2">
-        <v>43469</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12">
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <v>43469</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14">
         <v>100400</v>
       </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12">
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
         <v>848</v>
       </c>
-      <c r="D12">
+      <c r="D14">
         <v>440</v>
       </c>
-      <c r="E12">
+      <c r="E14">
         <v>466</v>
       </c>
-      <c r="F12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12">
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14">
         <v>384</v>
       </c>
-      <c r="H12" s="2">
-        <v>43469</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13">
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <v>43469</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15">
         <v>100401</v>
       </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13">
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15">
         <v>823</v>
       </c>
-      <c r="D13">
+      <c r="D15">
         <v>3</v>
       </c>
-      <c r="E13">
+      <c r="E15">
         <v>407</v>
       </c>
-      <c r="F13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13">
+      <c r="F15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15">
         <v>379</v>
       </c>
-      <c r="H13" s="2">
-        <v>43469</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14">
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <v>43469</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16">
         <v>100402</v>
       </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14">
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16">
         <v>823</v>
       </c>
-      <c r="D14">
+      <c r="D16">
         <v>3</v>
       </c>
-      <c r="E14">
+      <c r="E16">
         <v>393</v>
       </c>
-      <c r="F14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14">
+      <c r="F16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16">
         <v>381</v>
       </c>
-      <c r="H14" s="2">
-        <v>43469</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15">
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
+        <v>43469</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17">
         <v>100403</v>
       </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15">
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17">
         <v>827</v>
       </c>
-      <c r="D15">
+      <c r="D17">
         <v>1221</v>
-      </c>
-      <c r="E15">
-        <v>323</v>
-      </c>
-      <c r="F15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15">
-        <v>489</v>
-      </c>
-      <c r="H15" s="2">
-        <v>43469</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16">
-        <v>100404</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16">
-        <v>841</v>
-      </c>
-      <c r="D16">
-        <v>434</v>
-      </c>
-      <c r="E16">
-        <v>1096</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16">
-        <v>1086</v>
-      </c>
-      <c r="H16" s="2">
-        <v>43469</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17">
-        <v>100405</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17">
-        <v>817</v>
-      </c>
-      <c r="D17">
-        <v>346</v>
       </c>
       <c r="E17">
         <v>323</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G17">
+        <v>489</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2">
+        <v>43469</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18">
+        <v>100404</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18">
+        <v>841</v>
+      </c>
+      <c r="D18">
+        <v>434</v>
+      </c>
+      <c r="E18">
+        <v>1096</v>
+      </c>
+      <c r="F18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18">
+        <v>1086</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2">
+        <v>43469</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19">
+        <v>100405</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>817</v>
+      </c>
+      <c r="D19">
+        <v>346</v>
+      </c>
+      <c r="E19">
+        <v>323</v>
+      </c>
+      <c r="F19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19">
         <v>381</v>
       </c>
-      <c r="H17" s="2">
-        <v>43469</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18">
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19" s="2">
+        <v>43469</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20">
         <v>100406</v>
       </c>
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18">
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
         <v>823</v>
       </c>
-      <c r="D18">
+      <c r="D20">
         <v>3</v>
       </c>
-      <c r="E18">
+      <c r="E20">
         <v>391</v>
       </c>
-      <c r="F18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18">
+      <c r="F20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20">
         <v>388</v>
       </c>
-      <c r="H18" s="2">
-        <v>43469</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19">
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20" s="2">
+        <v>43469</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21">
         <v>100407</v>
       </c>
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19">
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21">
         <v>816</v>
       </c>
-      <c r="D19">
+      <c r="D21">
         <v>654</v>
       </c>
-      <c r="E19">
+      <c r="E21">
         <v>665</v>
       </c>
-      <c r="F19" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19">
+      <c r="F21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21">
         <v>646</v>
       </c>
-      <c r="H19" s="2">
-        <v>43469</v>
-      </c>
-      <c r="I19">
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21" s="2">
+        <v>43469</v>
+      </c>
+      <c r="P21">
         <v>456</v>
       </c>
-      <c r="J19" s="2">
-        <v>43469</v>
-      </c>
-      <c r="K19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20">
+      <c r="Q21" s="2">
+        <v>43469</v>
+      </c>
+      <c r="R21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22">
         <v>100408</v>
       </c>
-      <c r="B20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20">
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22">
         <v>819</v>
       </c>
-      <c r="D20">
+      <c r="D22">
         <v>819</v>
-      </c>
-      <c r="E20">
-        <v>323</v>
-      </c>
-      <c r="F20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20">
-        <v>835</v>
-      </c>
-      <c r="H20" s="2">
-        <v>43469</v>
-      </c>
-      <c r="I20">
-        <v>499</v>
-      </c>
-      <c r="J20" s="2">
-        <v>43480</v>
-      </c>
-      <c r="K20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21">
-        <v>100409</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21">
-        <v>835</v>
-      </c>
-      <c r="D21">
-        <v>811</v>
-      </c>
-      <c r="E21">
-        <v>323</v>
-      </c>
-      <c r="F21" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21">
-        <v>835</v>
-      </c>
-      <c r="H21" s="2">
-        <v>43469</v>
-      </c>
-      <c r="I21">
-        <v>498</v>
-      </c>
-      <c r="J21" s="2">
-        <v>43473</v>
-      </c>
-      <c r="K21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22">
-        <v>100410</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22">
-        <v>818</v>
-      </c>
-      <c r="D22">
-        <v>3</v>
       </c>
       <c r="E22">
         <v>323</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G22">
-        <v>386</v>
-      </c>
-      <c r="H22" s="2">
-        <v>43469</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>835</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2">
+        <v>43469</v>
+      </c>
+      <c r="P22">
+        <v>499</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>43480</v>
+      </c>
+      <c r="R22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23">
-        <v>100411</v>
+        <v>100409</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C23">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="D23">
-        <v>423</v>
+        <v>811</v>
       </c>
       <c r="E23">
-        <v>557</v>
+        <v>323</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G23">
-        <v>377</v>
-      </c>
-      <c r="H23" s="2">
-        <v>43469</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>835</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23" s="2">
+        <v>43469</v>
+      </c>
+      <c r="P23">
+        <v>498</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>43473</v>
+      </c>
+      <c r="R23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24">
-        <v>100412</v>
+        <v>100410</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C24">
-        <v>835</v>
+        <v>818</v>
       </c>
       <c r="D24">
-        <v>423</v>
+        <v>3</v>
       </c>
       <c r="E24">
         <v>323</v>
       </c>
       <c r="F24" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G24">
-        <v>728</v>
-      </c>
-      <c r="H24" s="2">
-        <v>43469</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>386</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24" s="2">
+        <v>43469</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25">
-        <v>100413</v>
+        <v>100411</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C25">
-        <v>815</v>
+        <v>833</v>
       </c>
       <c r="D25">
-        <v>351</v>
+        <v>423</v>
       </c>
       <c r="E25">
-        <v>323</v>
+        <v>557</v>
       </c>
       <c r="F25" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G25">
-        <v>700</v>
-      </c>
-      <c r="H25" s="2">
-        <v>43469</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>377</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25" s="2">
+        <v>43469</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26">
-        <v>100414</v>
+        <v>100411</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C26">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D26">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="E26">
         <v>323</v>
       </c>
       <c r="F26" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G26">
-        <v>1566</v>
-      </c>
-      <c r="H26" s="2">
-        <v>43469</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>377</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26" s="2">
+        <v>43469</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27">
-        <v>100415</v>
+        <v>100412</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C27">
-        <v>823</v>
+        <v>835</v>
       </c>
       <c r="D27">
-        <v>655</v>
+        <v>423</v>
       </c>
       <c r="E27">
-        <v>665</v>
+        <v>323</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G27">
-        <v>1317</v>
-      </c>
-      <c r="H27" s="2">
-        <v>43469</v>
-      </c>
-      <c r="I27">
-        <v>456</v>
-      </c>
-      <c r="J27" s="2">
-        <v>43472</v>
-      </c>
-      <c r="K27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>728</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27" s="2">
+        <v>43469</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28">
-        <v>100416</v>
+        <v>100413</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C28">
-        <v>830</v>
+        <v>815</v>
       </c>
       <c r="D28">
         <v>351</v>
@@ -1361,472 +1802,1038 @@
         <v>323</v>
       </c>
       <c r="F28" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G28">
-        <v>712</v>
-      </c>
-      <c r="H28" s="2">
-        <v>43469</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>700</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28" s="2">
+        <v>43469</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29">
-        <v>100417</v>
+        <v>100413</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C29">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="D29">
-        <v>462</v>
+        <v>351</v>
       </c>
       <c r="E29">
+        <v>556</v>
+      </c>
+      <c r="F29" t="s">
+        <v>50</v>
+      </c>
+      <c r="G29">
+        <v>700</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29" s="2">
+        <v>43469</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30">
+        <v>100414</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30">
+        <v>835</v>
+      </c>
+      <c r="D30">
+        <v>440</v>
+      </c>
+      <c r="E30">
         <v>323</v>
       </c>
-      <c r="F29" t="s">
-        <v>44</v>
-      </c>
-      <c r="G29">
-        <v>1086</v>
-      </c>
-      <c r="H29" s="2">
-        <v>43469</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30">
-        <v>100418</v>
-      </c>
-      <c r="B30" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30">
-        <v>819</v>
-      </c>
-      <c r="D30">
-        <v>348</v>
-      </c>
-      <c r="E30">
-        <v>328</v>
-      </c>
       <c r="F30" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="G30">
-        <v>383</v>
-      </c>
-      <c r="H30" s="2">
-        <v>43469</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>1566</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30" s="2">
+        <v>43469</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31">
-        <v>100419</v>
+        <v>100415</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C31">
         <v>823</v>
       </c>
       <c r="D31">
-        <v>1220</v>
+        <v>655</v>
       </c>
       <c r="E31">
-        <v>323</v>
+        <v>665</v>
       </c>
       <c r="F31" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G31">
-        <v>704</v>
-      </c>
-      <c r="H31" s="2">
-        <v>43469</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>1317</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31" s="2">
+        <v>43469</v>
+      </c>
+      <c r="P31">
+        <v>456</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>43472</v>
+      </c>
+      <c r="R31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32">
-        <v>100420</v>
+        <v>100416</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C32">
-        <v>814</v>
+        <v>830</v>
       </c>
       <c r="D32">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="E32">
         <v>323</v>
       </c>
       <c r="F32" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G32">
-        <v>358</v>
-      </c>
-      <c r="H32" s="2">
-        <v>43469</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>712</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32" s="2">
+        <v>43469</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33">
-        <v>100421</v>
+        <v>100417</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C33">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D33">
         <v>462</v>
       </c>
       <c r="E33">
-        <v>1078</v>
+        <v>323</v>
       </c>
       <c r="F33" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G33">
-        <v>712</v>
-      </c>
-      <c r="H33" s="2">
-        <v>43469</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>1086</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33" s="2">
+        <v>43469</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34">
-        <v>100422</v>
+        <v>100418</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C34">
-        <v>848</v>
+        <v>819</v>
       </c>
       <c r="D34">
-        <v>430</v>
+        <v>348</v>
       </c>
       <c r="E34">
-        <v>579</v>
+        <v>328</v>
       </c>
       <c r="F34" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G34">
-        <v>1210</v>
-      </c>
-      <c r="H34" s="2">
-        <v>43469</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>383</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34" s="2">
+        <v>43469</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35">
-        <v>100423</v>
+        <v>100419</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C35">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="D35">
-        <v>349</v>
+        <v>1220</v>
       </c>
       <c r="E35">
-        <v>395</v>
+        <v>323</v>
       </c>
       <c r="F35" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G35">
-        <v>1072</v>
-      </c>
-      <c r="H35" s="2">
-        <v>43469</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>704</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35" s="2">
+        <v>43469</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36">
-        <v>100424</v>
+        <v>100420</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C36">
-        <v>827</v>
+        <v>814</v>
       </c>
       <c r="D36">
-        <v>822</v>
+        <v>346</v>
       </c>
       <c r="E36">
-        <v>690</v>
+        <v>323</v>
       </c>
       <c r="F36" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G36">
-        <v>1180</v>
-      </c>
-      <c r="H36" s="2">
-        <v>43469</v>
-      </c>
-      <c r="I36">
-        <v>504</v>
-      </c>
-      <c r="J36" s="2">
-        <v>43473</v>
-      </c>
-      <c r="K36" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>358</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36" s="2">
+        <v>43469</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37">
-        <v>100425</v>
+        <v>100420</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C37">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="D37">
         <v>346</v>
       </c>
       <c r="E37">
+        <v>1078</v>
+      </c>
+      <c r="F37" t="s">
+        <v>56</v>
+      </c>
+      <c r="G37">
+        <v>358</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37" s="2">
+        <v>43469</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38">
+        <v>100421</v>
+      </c>
+      <c r="B38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38">
+        <v>820</v>
+      </c>
+      <c r="D38">
+        <v>462</v>
+      </c>
+      <c r="E38">
+        <v>1078</v>
+      </c>
+      <c r="F38" t="s">
+        <v>56</v>
+      </c>
+      <c r="G38">
+        <v>712</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38" s="2">
+        <v>43469</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39">
+        <v>100422</v>
+      </c>
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39">
+        <v>848</v>
+      </c>
+      <c r="D39">
+        <v>430</v>
+      </c>
+      <c r="E39">
+        <v>579</v>
+      </c>
+      <c r="F39" t="s">
+        <v>57</v>
+      </c>
+      <c r="G39">
+        <v>1210</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39" s="2">
+        <v>43469</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40">
+        <v>100422</v>
+      </c>
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40">
+        <v>848</v>
+      </c>
+      <c r="D40">
+        <v>430</v>
+      </c>
+      <c r="E40">
+        <v>1078</v>
+      </c>
+      <c r="F40" t="s">
+        <v>56</v>
+      </c>
+      <c r="G40">
+        <v>1210</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40" s="2">
+        <v>43469</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41">
+        <v>100423</v>
+      </c>
+      <c r="B41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41">
+        <v>830</v>
+      </c>
+      <c r="D41">
+        <v>349</v>
+      </c>
+      <c r="E41">
+        <v>395</v>
+      </c>
+      <c r="F41" t="s">
+        <v>58</v>
+      </c>
+      <c r="G41">
+        <v>1072</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41" s="2">
+        <v>43469</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42">
+        <v>100424</v>
+      </c>
+      <c r="B42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42">
+        <v>827</v>
+      </c>
+      <c r="D42">
+        <v>822</v>
+      </c>
+      <c r="E42">
+        <v>690</v>
+      </c>
+      <c r="F42" t="s">
+        <v>59</v>
+      </c>
+      <c r="G42">
+        <v>1180</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42" s="2">
+        <v>43469</v>
+      </c>
+      <c r="P42">
+        <v>504</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>43473</v>
+      </c>
+      <c r="R42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43">
+        <v>100425</v>
+      </c>
+      <c r="B43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43">
+        <v>823</v>
+      </c>
+      <c r="D43">
+        <v>346</v>
+      </c>
+      <c r="E43">
         <v>323</v>
       </c>
-      <c r="F37" t="s">
-        <v>51</v>
-      </c>
-      <c r="G37">
+      <c r="F43" t="s">
+        <v>60</v>
+      </c>
+      <c r="G43">
         <v>381</v>
       </c>
-      <c r="H37" s="2">
-        <v>43469</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38">
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43" s="2">
+        <v>43469</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44">
         <v>100427</v>
       </c>
-      <c r="B38" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38">
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44">
         <v>848</v>
       </c>
-      <c r="D38">
+      <c r="D44">
         <v>428</v>
       </c>
-      <c r="E38">
+      <c r="E44">
         <v>323</v>
       </c>
-      <c r="F38" t="s">
-        <v>52</v>
-      </c>
-      <c r="G38">
+      <c r="F44" t="s">
+        <v>61</v>
+      </c>
+      <c r="G44">
         <v>1566</v>
       </c>
-      <c r="H38" s="2">
-        <v>43469</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39">
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44" s="2">
+        <v>43469</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45">
         <v>100428</v>
       </c>
-      <c r="B39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39">
+      <c r="B45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45">
         <v>823</v>
       </c>
-      <c r="D39">
+      <c r="D45">
         <v>346</v>
       </c>
-      <c r="E39">
+      <c r="E45">
         <v>1078</v>
       </c>
-      <c r="F39" t="s">
-        <v>47</v>
-      </c>
-      <c r="G39">
+      <c r="F45" t="s">
+        <v>56</v>
+      </c>
+      <c r="G45">
         <v>489</v>
       </c>
-      <c r="H39" s="2">
-        <v>43469</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40">
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45" s="2">
+        <v>43469</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46">
         <v>100429</v>
       </c>
-      <c r="B40" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40">
+      <c r="B46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46">
         <v>832</v>
       </c>
-      <c r="D40">
+      <c r="D46">
         <v>822</v>
       </c>
-      <c r="E40">
+      <c r="E46">
         <v>690</v>
       </c>
-      <c r="F40" t="s">
-        <v>50</v>
-      </c>
-      <c r="G40">
+      <c r="F46" t="s">
+        <v>59</v>
+      </c>
+      <c r="G46">
         <v>849</v>
       </c>
-      <c r="H40" s="2">
-        <v>43469</v>
-      </c>
-      <c r="I40">
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46" s="2">
+        <v>43469</v>
+      </c>
+      <c r="P46">
         <v>504</v>
       </c>
-      <c r="J40" s="2">
+      <c r="Q46" s="2">
         <v>43481</v>
       </c>
-      <c r="K40" t="s">
+      <c r="R46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47">
+        <v>100430</v>
+      </c>
+      <c r="B47" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47">
+        <v>820</v>
+      </c>
+      <c r="D47">
+        <v>1221</v>
+      </c>
+      <c r="E47">
+        <v>1078</v>
+      </c>
+      <c r="F47" t="s">
+        <v>56</v>
+      </c>
+      <c r="G47">
+        <v>712</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47" s="2">
+        <v>43469</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48">
+        <v>100431</v>
+      </c>
+      <c r="B48" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48">
+        <v>830</v>
+      </c>
+      <c r="D48">
+        <v>462</v>
+      </c>
+      <c r="E48">
+        <v>562</v>
+      </c>
+      <c r="F48" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41">
-        <v>100430</v>
-      </c>
-      <c r="B41" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41">
-        <v>820</v>
-      </c>
-      <c r="D41">
+      <c r="G48">
+        <v>712</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48" s="2">
+        <v>43469</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49">
+        <v>100431</v>
+      </c>
+      <c r="B49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49">
+        <v>830</v>
+      </c>
+      <c r="D49">
+        <v>462</v>
+      </c>
+      <c r="E49">
+        <v>323</v>
+      </c>
+      <c r="F49" t="s">
+        <v>63</v>
+      </c>
+      <c r="G49">
+        <v>712</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49" s="2">
+        <v>43469</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50">
+        <v>100432</v>
+      </c>
+      <c r="B50" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50">
+        <v>819</v>
+      </c>
+      <c r="D50">
         <v>1221</v>
       </c>
-      <c r="E41">
-        <v>1078</v>
-      </c>
-      <c r="F41" t="s">
-        <v>47</v>
-      </c>
-      <c r="G41">
-        <v>712</v>
-      </c>
-      <c r="H41" s="2">
-        <v>43469</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42">
-        <v>100431</v>
-      </c>
-      <c r="B42" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42">
-        <v>830</v>
-      </c>
-      <c r="D42">
+      <c r="E50">
+        <v>1096</v>
+      </c>
+      <c r="F50" t="s">
+        <v>39</v>
+      </c>
+      <c r="G50">
+        <v>704</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50" s="2">
+        <v>43469</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51">
+        <v>100434</v>
+      </c>
+      <c r="B51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51">
+        <v>819</v>
+      </c>
+      <c r="D51">
         <v>462</v>
       </c>
-      <c r="E42">
-        <v>562</v>
-      </c>
-      <c r="F42" t="s">
-        <v>53</v>
-      </c>
-      <c r="G42">
-        <v>712</v>
-      </c>
-      <c r="H42" s="2">
-        <v>43469</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43">
-        <v>100432</v>
-      </c>
-      <c r="B43" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43">
-        <v>819</v>
-      </c>
-      <c r="D43">
-        <v>1221</v>
-      </c>
-      <c r="E43">
-        <v>1096</v>
-      </c>
-      <c r="F43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G43">
-        <v>704</v>
-      </c>
-      <c r="H43" s="2">
-        <v>43469</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44">
-        <v>100434</v>
-      </c>
-      <c r="B44" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44">
-        <v>819</v>
-      </c>
-      <c r="D44">
+      <c r="E51">
+        <v>394</v>
+      </c>
+      <c r="F51" t="s">
+        <v>64</v>
+      </c>
+      <c r="G51">
+        <v>381</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51" s="2">
+        <v>43469</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52">
+        <v>100435</v>
+      </c>
+      <c r="B52" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52">
+        <v>377</v>
+      </c>
+      <c r="D52">
         <v>462</v>
       </c>
-      <c r="E44">
-        <v>394</v>
-      </c>
-      <c r="F44" t="s">
-        <v>54</v>
-      </c>
-      <c r="G44">
-        <v>381</v>
-      </c>
-      <c r="H44" s="2">
-        <v>43469</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45">
-        <v>100435</v>
-      </c>
-      <c r="B45" t="s">
-        <v>17</v>
-      </c>
-      <c r="C45">
-        <v>377</v>
-      </c>
-      <c r="D45">
-        <v>462</v>
-      </c>
-      <c r="E45">
+      <c r="E52">
         <v>323</v>
       </c>
-      <c r="F45" t="s">
-        <v>55</v>
-      </c>
-      <c r="G45">
+      <c r="F52" t="s">
+        <v>65</v>
+      </c>
+      <c r="G52">
         <v>485</v>
       </c>
-      <c r="H45" s="2">
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52" s="2">
         <v>43469</v>
       </c>
     </row>

--- a/examples/sources/data/unsolved/to_schedule/2019-01-04.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-01-04.xlsx
@@ -2831,7 +2831,7 @@
         <v>1</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O52" s="2">
         <v>43469</v>
